--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/6 Garir Khal/6 CS of Gazir khal.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/6 Garir Khal/6 CS of Gazir khal.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="845" activeTab="3"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Long section Gazir khal'!$A$1:$AB$47</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -835,24 +835,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -903,6 +885,24 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -925,11 +925,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
@@ -1608,11 +1608,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196922368"/>
-        <c:axId val="196929024"/>
+        <c:axId val="255439616"/>
+        <c:axId val="255441920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196922368"/>
+        <c:axId val="255439616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1696,7 +1696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196929024"/>
+        <c:crossAx val="255441920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1705,7 +1705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196929024"/>
+        <c:axId val="255441920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1789,7 +1789,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196922368"/>
+        <c:crossAx val="255439616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -2059,11 +2059,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199197056"/>
-        <c:axId val="199198592"/>
+        <c:axId val="257501440"/>
+        <c:axId val="257503232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199197056"/>
+        <c:axId val="257501440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2109,12 +2109,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199198592"/>
+        <c:crossAx val="257503232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199198592"/>
+        <c:axId val="257503232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,7 +2159,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199197056"/>
+        <c:crossAx val="257501440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2399,11 +2399,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199305856"/>
-        <c:axId val="199307648"/>
+        <c:axId val="257549056"/>
+        <c:axId val="257550592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199305856"/>
+        <c:axId val="257549056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2449,12 +2449,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199307648"/>
+        <c:crossAx val="257550592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199307648"/>
+        <c:axId val="257550592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2499,7 +2499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199305856"/>
+        <c:crossAx val="257549056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2745,11 +2745,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199337088"/>
-        <c:axId val="199338624"/>
+        <c:axId val="257756160"/>
+        <c:axId val="257774336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199337088"/>
+        <c:axId val="257756160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2795,12 +2795,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199338624"/>
+        <c:crossAx val="257774336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199338624"/>
+        <c:axId val="257774336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2845,7 +2845,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199337088"/>
+        <c:crossAx val="257756160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3091,11 +3091,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199249280"/>
-        <c:axId val="199251072"/>
+        <c:axId val="257795584"/>
+        <c:axId val="257797120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199249280"/>
+        <c:axId val="257795584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3141,12 +3141,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199251072"/>
+        <c:crossAx val="257797120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199251072"/>
+        <c:axId val="257797120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3191,7 +3191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199249280"/>
+        <c:crossAx val="257795584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3443,11 +3443,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199276416"/>
-        <c:axId val="199277952"/>
+        <c:axId val="258101248"/>
+        <c:axId val="258102784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199276416"/>
+        <c:axId val="258101248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3493,12 +3493,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199277952"/>
+        <c:crossAx val="258102784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199277952"/>
+        <c:axId val="258102784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3543,7 +3543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199276416"/>
+        <c:crossAx val="258101248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3783,11 +3783,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199442816"/>
-        <c:axId val="199444352"/>
+        <c:axId val="258132608"/>
+        <c:axId val="258150784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199442816"/>
+        <c:axId val="258132608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3833,12 +3833,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199444352"/>
+        <c:crossAx val="258150784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199444352"/>
+        <c:axId val="258150784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3883,7 +3883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199442816"/>
+        <c:crossAx val="258132608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4123,11 +4123,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199486080"/>
-        <c:axId val="199491968"/>
+        <c:axId val="258167936"/>
+        <c:axId val="258169472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199486080"/>
+        <c:axId val="258167936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4173,12 +4173,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199491968"/>
+        <c:crossAx val="258169472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199491968"/>
+        <c:axId val="258169472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4223,7 +4223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199486080"/>
+        <c:crossAx val="258167936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4463,11 +4463,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199525504"/>
-        <c:axId val="199527040"/>
+        <c:axId val="258280832"/>
+        <c:axId val="258282624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199525504"/>
+        <c:axId val="258280832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4513,12 +4513,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199527040"/>
+        <c:crossAx val="258282624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199527040"/>
+        <c:axId val="258282624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4563,7 +4563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199525504"/>
+        <c:crossAx val="258280832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4803,11 +4803,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199556480"/>
-        <c:axId val="199570560"/>
+        <c:axId val="258299776"/>
+        <c:axId val="258301312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199556480"/>
+        <c:axId val="258299776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4853,12 +4853,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199570560"/>
+        <c:crossAx val="258301312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199570560"/>
+        <c:axId val="258301312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4903,7 +4903,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199556480"/>
+        <c:crossAx val="258299776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5143,11 +5143,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199587712"/>
-        <c:axId val="199589248"/>
+        <c:axId val="258347392"/>
+        <c:axId val="258348928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199587712"/>
+        <c:axId val="258347392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5193,12 +5193,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199589248"/>
+        <c:crossAx val="258348928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199589248"/>
+        <c:axId val="258348928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5243,7 +5243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199587712"/>
+        <c:crossAx val="258347392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5513,11 +5513,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197329664"/>
-        <c:axId val="197331200"/>
+        <c:axId val="255756544"/>
+        <c:axId val="255762432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197329664"/>
+        <c:axId val="255756544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5563,12 +5563,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197331200"/>
+        <c:crossAx val="255762432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197331200"/>
+        <c:axId val="255762432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5613,7 +5613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197329664"/>
+        <c:crossAx val="255756544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5871,11 +5871,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199692672"/>
-        <c:axId val="199694208"/>
+        <c:axId val="258374272"/>
+        <c:axId val="258380160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199692672"/>
+        <c:axId val="258374272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5921,12 +5921,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199694208"/>
+        <c:crossAx val="258380160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199694208"/>
+        <c:axId val="258380160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5971,7 +5971,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199692672"/>
+        <c:crossAx val="258374272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6217,11 +6217,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199727744"/>
-        <c:axId val="199733632"/>
+        <c:axId val="258479232"/>
+        <c:axId val="258480768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199727744"/>
+        <c:axId val="258479232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6267,12 +6267,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199733632"/>
+        <c:crossAx val="258480768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199733632"/>
+        <c:axId val="258480768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6317,7 +6317,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199727744"/>
+        <c:crossAx val="258479232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6557,11 +6557,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199775744"/>
-        <c:axId val="199777280"/>
+        <c:axId val="258514944"/>
+        <c:axId val="258516480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199775744"/>
+        <c:axId val="258514944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6607,12 +6607,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199777280"/>
+        <c:crossAx val="258516480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199777280"/>
+        <c:axId val="258516480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6657,7 +6657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199775744"/>
+        <c:crossAx val="258514944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6903,11 +6903,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199811072"/>
-        <c:axId val="199812608"/>
+        <c:axId val="258627840"/>
+        <c:axId val="258633728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199811072"/>
+        <c:axId val="258627840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6953,12 +6953,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199812608"/>
+        <c:crossAx val="258633728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199812608"/>
+        <c:axId val="258633728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7003,7 +7003,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199811072"/>
+        <c:crossAx val="258627840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7255,11 +7255,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199903488"/>
-        <c:axId val="199913472"/>
+        <c:axId val="258662784"/>
+        <c:axId val="258664320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199903488"/>
+        <c:axId val="258662784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7305,12 +7305,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199913472"/>
+        <c:crossAx val="258664320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199913472"/>
+        <c:axId val="258664320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7355,7 +7355,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199903488"/>
+        <c:crossAx val="258662784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7595,11 +7595,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199947008"/>
-        <c:axId val="199948544"/>
+        <c:axId val="258554496"/>
+        <c:axId val="258556288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199947008"/>
+        <c:axId val="258554496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7645,12 +7645,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199948544"/>
+        <c:crossAx val="258556288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199948544"/>
+        <c:axId val="258556288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7695,7 +7695,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199947008"/>
+        <c:crossAx val="258554496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7935,11 +7935,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199961600"/>
-        <c:axId val="199983872"/>
+        <c:axId val="258589824"/>
+        <c:axId val="258591360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199961600"/>
+        <c:axId val="258589824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7985,12 +7985,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199983872"/>
+        <c:crossAx val="258591360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199983872"/>
+        <c:axId val="258591360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8035,7 +8035,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199961600"/>
+        <c:crossAx val="258589824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8281,11 +8281,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200021504"/>
-        <c:axId val="200023040"/>
+        <c:axId val="258878848"/>
+        <c:axId val="258888832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200021504"/>
+        <c:axId val="258878848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8331,12 +8331,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200023040"/>
+        <c:crossAx val="258888832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200023040"/>
+        <c:axId val="258888832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8381,7 +8381,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200021504"/>
+        <c:crossAx val="258878848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8633,11 +8633,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200057216"/>
-        <c:axId val="200058752"/>
+        <c:axId val="258926848"/>
+        <c:axId val="258805760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200057216"/>
+        <c:axId val="258926848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8683,12 +8683,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200058752"/>
+        <c:crossAx val="258805760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200058752"/>
+        <c:axId val="258805760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8733,7 +8733,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200057216"/>
+        <c:crossAx val="258926848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8991,11 +8991,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200153344"/>
-        <c:axId val="200167424"/>
+        <c:axId val="258826624"/>
+        <c:axId val="258828160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200153344"/>
+        <c:axId val="258826624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9041,12 +9041,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200167424"/>
+        <c:crossAx val="258828160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200167424"/>
+        <c:axId val="258828160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9091,7 +9091,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200153344"/>
+        <c:crossAx val="258826624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9361,11 +9361,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197344256"/>
-        <c:axId val="197358336"/>
+        <c:axId val="255791872"/>
+        <c:axId val="255793408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197344256"/>
+        <c:axId val="255791872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9411,12 +9411,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197358336"/>
+        <c:crossAx val="255793408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197358336"/>
+        <c:axId val="255793408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9461,7 +9461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197344256"/>
+        <c:crossAx val="255791872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9701,11 +9701,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200200960"/>
-        <c:axId val="200202496"/>
+        <c:axId val="258861696"/>
+        <c:axId val="258863488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200200960"/>
+        <c:axId val="258861696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9751,12 +9751,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200202496"/>
+        <c:crossAx val="258863488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200202496"/>
+        <c:axId val="258863488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9801,7 +9801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200200960"/>
+        <c:crossAx val="258861696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10041,11 +10041,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200227840"/>
-        <c:axId val="200229632"/>
+        <c:axId val="258970752"/>
+        <c:axId val="258972288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200227840"/>
+        <c:axId val="258970752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10091,12 +10091,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200229632"/>
+        <c:crossAx val="258972288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200229632"/>
+        <c:axId val="258972288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10141,7 +10141,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200227840"/>
+        <c:crossAx val="258970752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10405,11 +10405,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197379584"/>
-        <c:axId val="197381120"/>
+        <c:axId val="255831040"/>
+        <c:axId val="255832832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197379584"/>
+        <c:axId val="255831040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10455,12 +10455,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197381120"/>
+        <c:crossAx val="255832832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197381120"/>
+        <c:axId val="255832832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10505,7 +10505,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197379584"/>
+        <c:crossAx val="255831040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10770,11 +10770,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197834624"/>
-        <c:axId val="197836160"/>
+        <c:axId val="256305024"/>
+        <c:axId val="256306560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197834624"/>
+        <c:axId val="256305024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10820,12 +10820,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197836160"/>
+        <c:crossAx val="256306560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197836160"/>
+        <c:axId val="256306560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10870,7 +10870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197834624"/>
+        <c:crossAx val="256305024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11141,11 +11141,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197481216"/>
-        <c:axId val="197482752"/>
+        <c:axId val="256340352"/>
+        <c:axId val="256341888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197481216"/>
+        <c:axId val="256340352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11191,12 +11191,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197482752"/>
+        <c:crossAx val="256341888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197482752"/>
+        <c:axId val="256341888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11241,7 +11241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197481216"/>
+        <c:crossAx val="256340352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11512,11 +11512,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197507712"/>
-        <c:axId val="197513600"/>
+        <c:axId val="256375424"/>
+        <c:axId val="256381312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197507712"/>
+        <c:axId val="256375424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11562,12 +11562,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197513600"/>
+        <c:crossAx val="256381312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197513600"/>
+        <c:axId val="256381312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11612,7 +11612,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197507712"/>
+        <c:crossAx val="256375424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11858,11 +11858,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198167936"/>
-        <c:axId val="198665344"/>
+        <c:axId val="256448000"/>
+        <c:axId val="256449536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198167936"/>
+        <c:axId val="256448000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11908,12 +11908,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198665344"/>
+        <c:crossAx val="256449536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198665344"/>
+        <c:axId val="256449536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11958,7 +11958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198167936"/>
+        <c:crossAx val="256448000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12198,11 +12198,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199165824"/>
-        <c:axId val="199167360"/>
+        <c:axId val="256475136"/>
+        <c:axId val="256476672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199165824"/>
+        <c:axId val="256475136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -12248,12 +12248,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199167360"/>
+        <c:crossAx val="256476672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199167360"/>
+        <c:axId val="256476672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12298,7 +12298,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199165824"/>
+        <c:crossAx val="256475136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12372,7 +12372,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12415,7 +12415,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8FF7218-DFF7-4357-8330-519C8E2164C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8FF7218-DFF7-4357-8330-519C8E2164C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12453,7 +12453,7 @@
         <xdr:cNvPr id="3" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37AE6D2E-5661-462A-B4C4-0B2DE1EF60C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37AE6D2E-5661-462A-B4C4-0B2DE1EF60C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12491,7 +12491,7 @@
         <xdr:cNvPr id="4" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E780CEE0-AD9C-4FED-9989-52AB769078DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E780CEE0-AD9C-4FED-9989-52AB769078DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12534,7 +12534,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5B9975-A85D-46E4-B500-C1CB1A0287C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F5B9975-A85D-46E4-B500-C1CB1A0287C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12572,7 +12572,7 @@
         <xdr:cNvPr id="3" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E05792-92F2-4222-ADCF-CF542C0EC697}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24E05792-92F2-4222-ADCF-CF542C0EC697}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12610,7 +12610,7 @@
         <xdr:cNvPr id="4" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21406F6B-21F4-419D-9B29-E3B1529C0482}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21406F6B-21F4-419D-9B29-E3B1529C0482}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12653,7 +12653,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12691,7 +12691,7 @@
         <xdr:cNvPr id="36" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12729,7 +12729,7 @@
         <xdr:cNvPr id="37" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12767,7 +12767,7 @@
         <xdr:cNvPr id="38" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12805,7 +12805,7 @@
         <xdr:cNvPr id="39" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12843,7 +12843,7 @@
         <xdr:cNvPr id="40" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12881,7 +12881,7 @@
         <xdr:cNvPr id="41" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12919,7 +12919,7 @@
         <xdr:cNvPr id="42" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12957,7 +12957,7 @@
         <xdr:cNvPr id="43" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12995,7 +12995,7 @@
         <xdr:cNvPr id="44" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42221F1C-7ADF-4D1C-AC06-1A67A1F0F9E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42221F1C-7ADF-4D1C-AC06-1A67A1F0F9E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13033,7 +13033,7 @@
         <xdr:cNvPr id="45" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{095BFDBF-7AB7-4948-867C-8DF247FF4400}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{095BFDBF-7AB7-4948-867C-8DF247FF4400}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13071,7 +13071,7 @@
         <xdr:cNvPr id="46" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F522DB-5C69-439F-9B63-120A004F2731}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6F522DB-5C69-439F-9B63-120A004F2731}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13109,7 +13109,7 @@
         <xdr:cNvPr id="47" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47E8D02-FBB4-474F-BCC7-0182E93F17BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E47E8D02-FBB4-474F-BCC7-0182E93F17BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13147,7 +13147,7 @@
         <xdr:cNvPr id="48" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF54B737-F1C4-4BB8-A1F0-48ECF1D8605B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF54B737-F1C4-4BB8-A1F0-48ECF1D8605B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13185,7 +13185,7 @@
         <xdr:cNvPr id="49" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D740B78-EE60-4937-AE70-03110307A857}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D740B78-EE60-4937-AE70-03110307A857}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13223,7 +13223,7 @@
         <xdr:cNvPr id="50" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C40603-DAED-45E1-8C63-A48698D89A23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0C40603-DAED-45E1-8C63-A48698D89A23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13261,7 +13261,7 @@
         <xdr:cNvPr id="51" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C1D77C1-CFFA-4BF9-A191-836028D36BD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C1D77C1-CFFA-4BF9-A191-836028D36BD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13299,7 +13299,7 @@
         <xdr:cNvPr id="52" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B11E40-F5BD-4EC4-AFC5-8785129AB0F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9B11E40-F5BD-4EC4-AFC5-8785129AB0F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13337,7 +13337,7 @@
         <xdr:cNvPr id="53" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEB865F-A69D-41FE-8A3D-5F3A5A5D9D3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEEB865F-A69D-41FE-8A3D-5F3A5A5D9D3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13375,7 +13375,7 @@
         <xdr:cNvPr id="21" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB53F7A3-4524-45F4-B0BA-68C8E1838746}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB53F7A3-4524-45F4-B0BA-68C8E1838746}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13413,7 +13413,7 @@
         <xdr:cNvPr id="22" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C206592A-4128-48DE-8946-3B281553DA66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C206592A-4128-48DE-8946-3B281553DA66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13451,7 +13451,7 @@
         <xdr:cNvPr id="23" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A75497BF-EEE9-4FB6-B8CA-1F59BB214DB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A75497BF-EEE9-4FB6-B8CA-1F59BB214DB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13489,7 +13489,7 @@
         <xdr:cNvPr id="24" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D697FDF5-03A9-4FCA-9F75-0BB7830582F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D697FDF5-03A9-4FCA-9F75-0BB7830582F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13527,7 +13527,7 @@
         <xdr:cNvPr id="25" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB92DCFF-821B-4DE2-946C-8D1F35FE6675}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB92DCFF-821B-4DE2-946C-8D1F35FE6675}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13570,7 +13570,7 @@
         <xdr:cNvPr id="5" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13703,7 +13703,7 @@
         <xdr:cNvPr id="6" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13855,7 +13855,7 @@
         <xdr:cNvPr id="7" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14627,15 +14627,15 @@
       <c r="A1" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
       <c r="K1" s="62"/>
@@ -15032,21 +15032,21 @@
     </row>
     <row r="7" spans="1:39" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="76"/>
-      <c r="F7" s="103" t="s">
+      <c r="F7" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
       <c r="AB7" s="78"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
@@ -15156,77 +15156,77 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="76"/>
-      <c r="R34" s="104" t="s">
+      <c r="R34" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="S34" s="105"/>
-      <c r="T34" s="105"/>
-      <c r="U34" s="105"/>
-      <c r="V34" s="105"/>
-      <c r="W34" s="105"/>
-      <c r="X34" s="105"/>
-      <c r="Y34" s="105"/>
-      <c r="Z34" s="105"/>
-      <c r="AA34" s="105"/>
-      <c r="AB34" s="106"/>
+      <c r="S34" s="99"/>
+      <c r="T34" s="99"/>
+      <c r="U34" s="99"/>
+      <c r="V34" s="99"/>
+      <c r="W34" s="99"/>
+      <c r="X34" s="99"/>
+      <c r="Y34" s="99"/>
+      <c r="Z34" s="99"/>
+      <c r="AA34" s="99"/>
+      <c r="AB34" s="100"/>
     </row>
     <row r="35" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="76"/>
-      <c r="R35" s="107" t="s">
+      <c r="R35" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="S35" s="108"/>
-      <c r="T35" s="108"/>
-      <c r="U35" s="108"/>
-      <c r="V35" s="108"/>
-      <c r="W35" s="108"/>
-      <c r="X35" s="108"/>
-      <c r="Y35" s="108"/>
-      <c r="Z35" s="108"/>
-      <c r="AA35" s="108"/>
-      <c r="AB35" s="109"/>
+      <c r="S35" s="102"/>
+      <c r="T35" s="102"/>
+      <c r="U35" s="102"/>
+      <c r="V35" s="102"/>
+      <c r="W35" s="102"/>
+      <c r="X35" s="102"/>
+      <c r="Y35" s="102"/>
+      <c r="Z35" s="102"/>
+      <c r="AA35" s="102"/>
+      <c r="AB35" s="103"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="76"/>
-      <c r="R36" s="110"/>
-      <c r="S36" s="111"/>
-      <c r="T36" s="111"/>
-      <c r="U36" s="111"/>
-      <c r="V36" s="111"/>
-      <c r="W36" s="111"/>
-      <c r="X36" s="111"/>
-      <c r="Y36" s="111"/>
-      <c r="Z36" s="111"/>
-      <c r="AA36" s="111"/>
-      <c r="AB36" s="112"/>
+      <c r="R36" s="104"/>
+      <c r="S36" s="105"/>
+      <c r="T36" s="105"/>
+      <c r="U36" s="105"/>
+      <c r="V36" s="105"/>
+      <c r="W36" s="105"/>
+      <c r="X36" s="105"/>
+      <c r="Y36" s="105"/>
+      <c r="Z36" s="105"/>
+      <c r="AA36" s="105"/>
+      <c r="AB36" s="106"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="76"/>
-      <c r="R37" s="110"/>
-      <c r="S37" s="111"/>
-      <c r="T37" s="111"/>
-      <c r="U37" s="111"/>
-      <c r="V37" s="111"/>
-      <c r="W37" s="111"/>
-      <c r="X37" s="111"/>
-      <c r="Y37" s="111"/>
-      <c r="Z37" s="111"/>
-      <c r="AA37" s="111"/>
-      <c r="AB37" s="112"/>
+      <c r="R37" s="104"/>
+      <c r="S37" s="105"/>
+      <c r="T37" s="105"/>
+      <c r="U37" s="105"/>
+      <c r="V37" s="105"/>
+      <c r="W37" s="105"/>
+      <c r="X37" s="105"/>
+      <c r="Y37" s="105"/>
+      <c r="Z37" s="105"/>
+      <c r="AA37" s="105"/>
+      <c r="AB37" s="106"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="76"/>
-      <c r="R38" s="113"/>
-      <c r="S38" s="114"/>
-      <c r="T38" s="114"/>
-      <c r="U38" s="114"/>
-      <c r="V38" s="114"/>
-      <c r="W38" s="114"/>
-      <c r="X38" s="114"/>
-      <c r="Y38" s="114"/>
-      <c r="Z38" s="114"/>
-      <c r="AA38" s="114"/>
-      <c r="AB38" s="115"/>
+      <c r="R38" s="107"/>
+      <c r="S38" s="108"/>
+      <c r="T38" s="108"/>
+      <c r="U38" s="108"/>
+      <c r="V38" s="108"/>
+      <c r="W38" s="108"/>
+      <c r="X38" s="108"/>
+      <c r="Y38" s="108"/>
+      <c r="Z38" s="108"/>
+      <c r="AA38" s="108"/>
+      <c r="AB38" s="109"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="76"/>
@@ -15286,84 +15286,84 @@
     </row>
     <row r="43" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="76"/>
-      <c r="R43" s="116" t="s">
+      <c r="R43" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="S43" s="117"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="118"/>
-      <c r="V43" s="116" t="s">
+      <c r="S43" s="111"/>
+      <c r="T43" s="111"/>
+      <c r="U43" s="112"/>
+      <c r="V43" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="W43" s="117"/>
-      <c r="X43" s="117"/>
-      <c r="Y43" s="118"/>
-      <c r="Z43" s="116" t="s">
+      <c r="W43" s="111"/>
+      <c r="X43" s="111"/>
+      <c r="Y43" s="112"/>
+      <c r="Z43" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="AA43" s="117"/>
-      <c r="AB43" s="118"/>
+      <c r="AA43" s="111"/>
+      <c r="AB43" s="112"/>
     </row>
     <row r="44" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="76"/>
-      <c r="R44" s="95" t="s">
+      <c r="R44" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="S44" s="96"/>
-      <c r="T44" s="96"/>
-      <c r="U44" s="97"/>
-      <c r="V44" s="95" t="s">
+      <c r="S44" s="114"/>
+      <c r="T44" s="114"/>
+      <c r="U44" s="115"/>
+      <c r="V44" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="W44" s="96"/>
-      <c r="X44" s="96"/>
-      <c r="Y44" s="97"/>
-      <c r="Z44" s="95" t="s">
+      <c r="W44" s="114"/>
+      <c r="X44" s="114"/>
+      <c r="Y44" s="115"/>
+      <c r="Z44" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="AA44" s="96"/>
-      <c r="AB44" s="97"/>
+      <c r="AA44" s="114"/>
+      <c r="AB44" s="115"/>
     </row>
     <row r="45" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="76"/>
-      <c r="R45" s="95" t="s">
+      <c r="R45" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="S45" s="96"/>
-      <c r="T45" s="96"/>
-      <c r="U45" s="97"/>
-      <c r="V45" s="95" t="s">
+      <c r="S45" s="114"/>
+      <c r="T45" s="114"/>
+      <c r="U45" s="115"/>
+      <c r="V45" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="W45" s="96"/>
-      <c r="X45" s="96"/>
-      <c r="Y45" s="97"/>
-      <c r="Z45" s="95" t="s">
+      <c r="W45" s="114"/>
+      <c r="X45" s="114"/>
+      <c r="Y45" s="115"/>
+      <c r="Z45" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="AA45" s="96"/>
-      <c r="AB45" s="97"/>
+      <c r="AA45" s="114"/>
+      <c r="AB45" s="115"/>
       <c r="AC45" s="89"/>
     </row>
     <row r="46" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="76"/>
-      <c r="R46" s="95" t="s">
+      <c r="R46" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="S46" s="96"/>
-      <c r="T46" s="96"/>
-      <c r="U46" s="97"/>
-      <c r="V46" s="95" t="s">
+      <c r="S46" s="114"/>
+      <c r="T46" s="114"/>
+      <c r="U46" s="115"/>
+      <c r="V46" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="W46" s="96"/>
-      <c r="X46" s="96"/>
-      <c r="Y46" s="97"/>
-      <c r="Z46" s="95" t="s">
+      <c r="W46" s="114"/>
+      <c r="X46" s="114"/>
+      <c r="Y46" s="115"/>
+      <c r="Z46" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="AA46" s="96"/>
-      <c r="AB46" s="97"/>
+      <c r="AA46" s="114"/>
+      <c r="AB46" s="115"/>
       <c r="AC46" s="89"/>
     </row>
     <row r="47" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15384,23 +15384,23 @@
       <c r="O47" s="91"/>
       <c r="P47" s="91"/>
       <c r="Q47" s="91"/>
-      <c r="R47" s="98" t="s">
+      <c r="R47" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="S47" s="99"/>
-      <c r="T47" s="99"/>
-      <c r="U47" s="100"/>
-      <c r="V47" s="98" t="s">
+      <c r="S47" s="117"/>
+      <c r="T47" s="117"/>
+      <c r="U47" s="118"/>
+      <c r="V47" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="W47" s="99"/>
-      <c r="X47" s="99"/>
-      <c r="Y47" s="100"/>
-      <c r="Z47" s="98" t="s">
+      <c r="W47" s="117"/>
+      <c r="X47" s="117"/>
+      <c r="Y47" s="118"/>
+      <c r="Z47" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="AA47" s="99"/>
-      <c r="AB47" s="100"/>
+      <c r="AA47" s="117"/>
+      <c r="AB47" s="118"/>
       <c r="AC47" s="92"/>
     </row>
     <row r="53" spans="18:28" x14ac:dyDescent="0.2">
@@ -15444,6 +15444,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="R44:U44"/>
+    <mergeCell ref="V44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="R45:U45"/>
+    <mergeCell ref="V45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F7:R7"/>
     <mergeCell ref="R34:AB34"/>
@@ -15451,18 +15463,6 @@
     <mergeCell ref="R43:U43"/>
     <mergeCell ref="V43:Y43"/>
     <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="R44:U44"/>
-    <mergeCell ref="V44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="R45:U45"/>
-    <mergeCell ref="V45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AB47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
@@ -20418,10 +20418,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:V400"/>
+  <dimension ref="A1:V861"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <selection activeCell="V377" sqref="V377"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A360" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20823,28 +20823,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
       <c r="U1" s="12"/>
       <c r="V1" s="12"/>
     </row>
@@ -21417,10 +21417,10 @@
       <c r="E17" s="13"/>
       <c r="F17" s="16"/>
       <c r="G17" s="19"/>
-      <c r="H17" s="128" t="s">
+      <c r="H17" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="128"/>
+      <c r="I17" s="127"/>
       <c r="J17" s="19" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -21965,10 +21965,10 @@
       <c r="E32" s="13"/>
       <c r="F32" s="16"/>
       <c r="G32" s="19"/>
-      <c r="H32" s="128" t="s">
+      <c r="H32" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="128"/>
+      <c r="I32" s="127"/>
       <c r="J32" s="19" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -23680,10 +23680,10 @@
       <c r="E79" s="13"/>
       <c r="F79" s="16"/>
       <c r="G79" s="19"/>
-      <c r="H79" s="128" t="s">
+      <c r="H79" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I79" s="128"/>
+      <c r="I79" s="127"/>
       <c r="J79" s="19" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -26109,10 +26109,10 @@
       <c r="E143" s="13"/>
       <c r="F143" s="16"/>
       <c r="G143" s="19"/>
-      <c r="H143" s="128" t="s">
+      <c r="H143" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I143" s="128"/>
+      <c r="I143" s="127"/>
       <c r="J143" s="19" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -27281,10 +27281,10 @@
       <c r="E177" s="13"/>
       <c r="F177" s="16"/>
       <c r="G177" s="19"/>
-      <c r="H177" s="128" t="s">
+      <c r="H177" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I177" s="128"/>
+      <c r="I177" s="127"/>
       <c r="J177" s="16" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -28500,10 +28500,10 @@
       <c r="E211" s="13"/>
       <c r="F211" s="16"/>
       <c r="G211" s="19"/>
-      <c r="H211" s="128" t="s">
+      <c r="H211" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I211" s="128"/>
+      <c r="I211" s="127"/>
       <c r="J211" s="16" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -34697,15 +34697,497 @@
       <c r="D400" s="25"/>
       <c r="J400" s="5"/>
     </row>
+    <row r="401" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="402" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="403" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="404" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="405" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="406" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="407" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="408" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="409" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="410" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="411" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="412" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="413" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="414" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="415" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="416" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="417" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="418" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="419" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="420" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="421" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="422" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="423" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="424" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="425" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="426" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="427" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="428" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="429" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="430" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="431" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="432" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="433" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="434" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="435" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="436" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="437" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="438" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="439" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="440" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="441" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="442" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="443" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="444" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="445" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="446" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="447" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="448" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="449" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="450" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="451" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="452" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="453" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="454" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="455" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="456" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="457" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="458" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="459" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="460" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="461" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="462" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="463" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="464" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="465" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="466" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="467" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="468" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="469" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="470" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="471" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="472" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="473" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="474" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="475" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="476" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="477" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="478" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="479" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="480" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="481" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="482" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="483" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="484" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="485" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="486" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="487" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="488" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="489" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="490" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="491" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="492" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="493" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="494" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="495" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="496" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="497" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="498" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="499" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="500" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="501" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="502" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="503" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="504" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="505" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="506" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="507" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="508" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="509" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="510" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="511" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="512" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="513" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="514" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="515" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="516" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="517" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="518" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="519" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="520" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="521" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="522" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="523" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="524" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="525" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="526" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="527" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="528" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="529" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="530" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="531" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="532" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="533" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="534" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="535" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="536" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="537" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="538" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="539" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="540" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="541" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="542" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="543" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="544" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="545" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="546" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="547" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="548" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="549" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="550" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="551" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="552" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="553" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="554" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="555" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="556" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="557" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="558" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="559" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="560" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="561" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="562" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="563" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="564" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="565" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="566" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="567" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="568" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="569" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="570" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="571" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="572" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="573" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="574" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="575" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="576" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="577" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="578" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="579" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="580" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="581" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="582" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="583" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="584" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="585" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="586" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="587" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="588" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="589" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="590" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="591" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="592" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="593" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="594" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="595" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="596" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="597" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="598" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="599" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="600" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="601" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="602" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="603" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="604" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="605" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="606" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="607" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="608" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="609" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="610" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="611" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="612" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="613" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="614" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="615" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="616" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="617" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="618" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="619" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="620" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="621" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="622" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="623" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="624" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="625" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="626" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="627" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="628" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="629" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="630" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="631" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="632" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="633" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="634" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="635" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="636" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="637" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="638" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="639" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="640" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="641" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="642" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="643" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="644" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="645" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="646" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="647" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="648" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="649" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="650" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="651" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="652" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="653" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="654" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="655" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="656" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="657" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="658" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="659" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="660" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="661" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="662" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="663" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="664" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="665" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="666" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="667" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="668" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="669" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="670" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="671" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="672" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="673" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="674" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="675" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="676" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="677" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="678" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="679" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="680" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="681" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="682" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="683" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="684" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="685" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="686" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="687" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="688" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="689" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="690" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="691" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="692" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="693" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="694" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="695" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="696" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="697" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="698" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="699" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="700" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="701" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="702" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="703" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="704" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="705" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="706" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="707" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="708" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="709" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="710" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="711" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="712" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="713" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="714" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="715" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="716" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="717" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="718" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="719" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="720" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="721" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="722" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="723" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="724" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="725" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="726" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="727" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="728" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="729" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="730" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="731" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="732" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="733" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="734" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="735" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="736" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="737" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="738" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="739" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="740" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="741" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="742" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="743" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="744" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="745" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="746" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="747" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="748" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="749" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="750" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="751" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="752" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="753" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="754" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="755" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="756" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="757" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="758" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="759" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="760" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="761" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="762" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="763" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="764" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="765" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="766" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="767" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="768" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="769" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="770" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="771" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="772" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="773" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="774" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="775" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="776" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="777" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="778" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="779" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="780" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="781" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="782" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="783" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="784" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="785" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="786" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="787" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="788" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="789" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="790" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="791" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="792" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="793" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="794" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="795" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="796" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="797" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="798" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="799" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="800" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="801" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="802" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="803" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="804" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="805" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="806" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="807" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="808" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="809" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="810" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="811" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="812" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="813" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="814" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="815" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="816" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="817" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="818" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="819" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="820" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="821" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="822" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="823" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="824" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="825" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="826" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="827" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="828" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="829" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="830" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="831" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="832" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="833" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="834" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="835" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="836" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="837" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="838" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="839" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="840" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="841" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="842" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="843" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="844" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="845" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="846" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="847" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="848" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="849" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="850" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="851" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="852" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="853" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="854" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="855" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="856" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="857" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="858" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="859" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="860" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="861" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D358:E358"/>
+    <mergeCell ref="D372:E372"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="B373:G373"/>
+    <mergeCell ref="I373:M373"/>
+    <mergeCell ref="B277:G277"/>
+    <mergeCell ref="I277:M277"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="B293:G293"/>
+    <mergeCell ref="I293:M293"/>
+    <mergeCell ref="D307:E307"/>
+    <mergeCell ref="D323:E323"/>
+    <mergeCell ref="D340:E340"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="I161:M161"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="B243:G243"/>
+    <mergeCell ref="I243:M243"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="B179:G179"/>
+    <mergeCell ref="I179:M179"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="D212:E212"/>
     <mergeCell ref="D114:E114"/>
     <mergeCell ref="D128:E128"/>
     <mergeCell ref="I129:M129"/>
@@ -34722,34 +35204,13 @@
     <mergeCell ref="B145:G145"/>
     <mergeCell ref="I145:M145"/>
     <mergeCell ref="D160:E160"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="I161:M161"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="B243:G243"/>
-    <mergeCell ref="I243:M243"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="B179:G179"/>
-    <mergeCell ref="I179:M179"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="H211:I211"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="D358:E358"/>
-    <mergeCell ref="D372:E372"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="B373:G373"/>
-    <mergeCell ref="I373:M373"/>
-    <mergeCell ref="B277:G277"/>
-    <mergeCell ref="I277:M277"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="B293:G293"/>
-    <mergeCell ref="I293:M293"/>
-    <mergeCell ref="D307:E307"/>
-    <mergeCell ref="D323:E323"/>
-    <mergeCell ref="D340:E340"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D48:E48"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
